--- a/IO_Overview.xlsx
+++ b/IO_Overview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baischerl\Documents\localProject\cad\RS485-IO-Extension\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03459172-8902-44D0-BCC6-382FD38D1C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963A324E-CAC5-438C-9F1A-0880F4BCEA98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4590" yWindow="3240" windowWidth="28800" windowHeight="15435" xr2:uid="{22052B5C-B221-40B8-A976-D46AAAD19BD0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{22052B5C-B221-40B8-A976-D46AAAD19BD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -494,7 +494,7 @@
   <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -787,6 +787,10 @@
         <f>_xlfn.CEILING.MATH(E15/13)</f>
         <v>5</v>
       </c>
+      <c r="N16">
+        <f>2*8+2*10+2*8+2*6</f>
+        <v>64</v>
+      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">

--- a/IO_Overview.xlsx
+++ b/IO_Overview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baischerl\Documents\localProject\cad\RS485-IO-Extension\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963A324E-CAC5-438C-9F1A-0880F4BCEA98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0DCF16-F56D-4C51-B451-F35447811515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{22052B5C-B221-40B8-A976-D46AAAD19BD0}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{22052B5C-B221-40B8-A976-D46AAAD19BD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -494,7 +494,7 @@
   <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,14 +570,14 @@
         <v>0</v>
       </c>
       <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>2</v>
       </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
       <c r="E2">
-        <f>4+1+1+1+1+1+1</f>
-        <v>10</v>
+        <f>2+1+1+1+1+1</f>
+        <v>7</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -593,7 +593,7 @@
         <v>1</v>
       </c>
       <c r="J2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -608,7 +608,7 @@
         <v>5</v>
       </c>
       <c r="O2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P2">
         <v>4</v>
@@ -618,7 +618,7 @@
       </c>
       <c r="S2">
         <f>SUM(B2:Q2)</f>
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -750,7 +750,7 @@
       </c>
       <c r="B8">
         <f>S2</f>
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -759,7 +759,7 @@
       </c>
       <c r="B10">
         <f>SUM(B7,B8)</f>
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">

--- a/IO_Overview.xlsx
+++ b/IO_Overview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baischerl\Documents\localProject\cad\RS485-IO-Extension\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0DCF16-F56D-4C51-B451-F35447811515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C375F2-B25A-4BCF-9D62-C4EE7CA2D447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{22052B5C-B221-40B8-A976-D46AAAD19BD0}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{22052B5C-B221-40B8-A976-D46AAAD19BD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="108">
   <si>
     <t>Raum</t>
   </si>
@@ -120,16 +120,262 @@
   </si>
   <si>
     <t>CN10</t>
+  </si>
+  <si>
+    <t>Aussen</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>Licht 24VDC Spots Essküche Mitte (Spot Kamin)</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>Licht 24VDC Schattenfuge 1</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>Licht 24VDC Schattenfuge 4</t>
+  </si>
+  <si>
+    <t>Licht 24VDC Schattenfuge 3</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Q5</t>
+  </si>
+  <si>
+    <t>Q6</t>
+  </si>
+  <si>
+    <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
+  </si>
+  <si>
+    <t>Q9</t>
+  </si>
+  <si>
+    <t>Jalousie KZ Ost1</t>
+  </si>
+  <si>
+    <t>Jalousie KZ Ost2</t>
+  </si>
+  <si>
+    <t>Jalousie KZ West</t>
+  </si>
+  <si>
+    <t>Jalousie KZ Mitte</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>Jalousie SZ 1</t>
+  </si>
+  <si>
+    <t>Jalousie SZ 2</t>
+  </si>
+  <si>
+    <t>Jalousie Bad</t>
+  </si>
+  <si>
+    <t>Jalousie Schrankraum</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>Jalousie WZ Tür</t>
+  </si>
+  <si>
+    <t>JalousieTerasse 1</t>
+  </si>
+  <si>
+    <t>JalousieTerasse 2</t>
+  </si>
+  <si>
+    <t>Jalousie EZ</t>
+  </si>
+  <si>
+    <t>Jalousie WZ Fenster</t>
+  </si>
+  <si>
+    <t>Jalousie HWR</t>
+  </si>
+  <si>
+    <t>Jalousie Büro</t>
+  </si>
+  <si>
+    <t>Licht  24V SZ</t>
+  </si>
+  <si>
+    <t>Licht 24V SZ Nachttisch 1</t>
+  </si>
+  <si>
+    <t>Licht 24V SZ Nachttisch 2</t>
+  </si>
+  <si>
+    <t>Licht 24VDC Spots Küche</t>
+  </si>
+  <si>
+    <t>Licht 24VDC Esszimmer</t>
+  </si>
+  <si>
+    <t>Licht 24VDC Kochinsel</t>
+  </si>
+  <si>
+    <t>Licht 24VDC Schrankraum</t>
+  </si>
+  <si>
+    <t>Licht 24VDC LED alle Schränke</t>
+  </si>
+  <si>
+    <t>Licht 24VDC SZ1</t>
+  </si>
+  <si>
+    <t>Licht 24VDC SZ2</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>Handlauf Stiege 2</t>
+  </si>
+  <si>
+    <t>Handlauf Stiege 1</t>
+  </si>
+  <si>
+    <t>Licht 24VDC LED Stiege1</t>
+  </si>
+  <si>
+    <t>Licht 24VDC LED Vorhaus 2</t>
+  </si>
+  <si>
+    <t>Licht 24VDC LED Vorhaus 1</t>
+  </si>
+  <si>
+    <t>Licht 24VDC LED Gang OG 1</t>
+  </si>
+  <si>
+    <t>Licht 24VDC LED Gang OG 2</t>
+  </si>
+  <si>
+    <t>LED WZ 2</t>
+  </si>
+  <si>
+    <t>LED WZ 1</t>
+  </si>
+  <si>
+    <t>Licht 24VDC WZ</t>
+  </si>
+  <si>
+    <t>Licht 24VDC Bad</t>
+  </si>
+  <si>
+    <t>Licht 24VDC Spots Dusche</t>
+  </si>
+  <si>
+    <t>Licht 24VDC Spots Badspiegel</t>
+  </si>
+  <si>
+    <t>Licht 24VDC Badewanne</t>
+  </si>
+  <si>
+    <t>Licht 24VDC KZ Mitte</t>
+  </si>
+  <si>
+    <t>Licht 24VDC KZ Ost</t>
+  </si>
+  <si>
+    <t>Licht 24VDC KZ West</t>
+  </si>
+  <si>
+    <t>Licht 24VDC WC OG</t>
+  </si>
+  <si>
+    <t>Licht 230V WC UG</t>
+  </si>
+  <si>
+    <t>Licht Spiegel Vorhaus</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>Licht Zugang 1, Licht Zugang 2</t>
+  </si>
+  <si>
+    <t>Licht Terasse 1, Licht Terasse 2</t>
+  </si>
+  <si>
+    <t>Licht Terasse 3, Licht Terasse 4</t>
+  </si>
+  <si>
+    <t>Sensorlicht 1,2,3</t>
+  </si>
+  <si>
+    <t>Licht Küchenzeile</t>
+  </si>
+  <si>
+    <t>Licht Speis</t>
+  </si>
+  <si>
+    <t>Licht HWR1</t>
+  </si>
+  <si>
+    <t>Licht HWR2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -155,8 +401,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,10 +743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA5B52D-611F-4FE7-AFD6-D4D35984D14B}">
-  <dimension ref="A1:S32"/>
+  <dimension ref="A1:X80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" topLeftCell="G55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AA20" sqref="AA20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,9 +756,10 @@
     <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="42.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -558,11 +811,23 @@
       <c r="Q1" t="s">
         <v>19</v>
       </c>
+      <c r="R1" t="s">
+        <v>28</v>
+      </c>
       <c r="S1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="W1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -620,8 +885,15 @@
         <f>SUM(B2:Q2)</f>
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V2" s="2"/>
+      <c r="W2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -677,8 +949,15 @@
         <f>SUM(B3:Q3)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V3" s="2"/>
+      <c r="W3" t="s">
+        <v>44</v>
+      </c>
+      <c r="X3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -734,8 +1013,33 @@
         <f>SUM(B4:Q4)</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V4" s="2"/>
+      <c r="W4" t="s">
+        <v>45</v>
+      </c>
+      <c r="X4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V5" s="2"/>
+      <c r="W5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V6" s="2"/>
+      <c r="W6" t="s">
+        <v>47</v>
+      </c>
+      <c r="X6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -743,8 +1047,15 @@
         <f>S3+2*S4</f>
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V7" s="2"/>
+      <c r="W7" t="s">
+        <v>48</v>
+      </c>
+      <c r="X7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -752,85 +1063,682 @@
         <f>S2</f>
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="V8" s="2"/>
+      <c r="W8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="W10" t="s">
+        <v>30</v>
+      </c>
+      <c r="X10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <f>SUM(B7,B8)</f>
         <v>67</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <f>_xlfn.CEILING.MATH(B10/13)</f>
+      <c r="V11" s="2"/>
+      <c r="W11" t="s">
+        <v>32</v>
+      </c>
+      <c r="X11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <f>_xlfn.CEILING.MATH(B11/13)</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C15">
+      <c r="V12" s="2"/>
+      <c r="W12" t="s">
+        <v>34</v>
+      </c>
+      <c r="X12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V13" s="2"/>
+      <c r="W13" t="s">
+        <v>37</v>
+      </c>
+      <c r="X13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V14" s="2"/>
+      <c r="W14" t="s">
+        <v>38</v>
+      </c>
+      <c r="X14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V15" s="2"/>
+      <c r="W15" t="s">
+        <v>39</v>
+      </c>
+      <c r="X15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C16">
         <f>12*3</f>
         <v>36</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <f>9*3</f>
         <v>27</v>
       </c>
-      <c r="E15">
-        <f>C15+D15</f>
+      <c r="E16">
+        <f>C16+D16</f>
         <v>63</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E16">
-        <f>_xlfn.CEILING.MATH(E15/13)</f>
+      <c r="V16" s="2"/>
+      <c r="W16" t="s">
+        <v>40</v>
+      </c>
+      <c r="X16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <f>_xlfn.CEILING.MATH(E16/13)</f>
         <v>5</v>
       </c>
-      <c r="N16">
+      <c r="N17">
         <f>2*8+2*10+2*8+2*6</f>
         <v>64</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="V17" s="2"/>
+      <c r="W17" t="s">
+        <v>41</v>
+      </c>
+      <c r="X17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V18" s="2"/>
+      <c r="W18" t="s">
+        <v>42</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V19" s="2"/>
+      <c r="W19" t="s">
+        <v>43</v>
+      </c>
+      <c r="X19" s="1"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V20" s="2"/>
+      <c r="W20" t="s">
+        <v>44</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V21" s="2"/>
+      <c r="W21" t="s">
+        <v>45</v>
+      </c>
+      <c r="X21" s="1"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V22" s="2"/>
+      <c r="W22" t="s">
+        <v>46</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V23" s="2"/>
+      <c r="W23" t="s">
+        <v>47</v>
+      </c>
+      <c r="X23" s="1"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V24" s="2"/>
+      <c r="W24" t="s">
+        <v>48</v>
+      </c>
+      <c r="X24" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V25" s="2"/>
+      <c r="W25" t="s">
+        <v>49</v>
+      </c>
+      <c r="X25" s="1"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="B25">
+      <c r="B26">
         <v>17</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="V26" s="2"/>
+      <c r="W26" t="s">
+        <v>50</v>
+      </c>
+      <c r="X26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>26</v>
       </c>
-      <c r="B27">
+      <c r="B28">
         <v>21</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="V28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W28" t="s">
+        <v>30</v>
+      </c>
+      <c r="X28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>27</v>
       </c>
-      <c r="B28">
+      <c r="B29">
         <v>26</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B32">
-        <f>SUM(B25:B30)</f>
+      <c r="V29" s="2"/>
+      <c r="W29" t="s">
+        <v>32</v>
+      </c>
+      <c r="X29" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V30" s="2"/>
+      <c r="W30" t="s">
+        <v>34</v>
+      </c>
+      <c r="X30" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V31" s="2"/>
+      <c r="W31" t="s">
+        <v>37</v>
+      </c>
+      <c r="X31" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V32" s="2"/>
+      <c r="W32" t="s">
+        <v>38</v>
+      </c>
+      <c r="X32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <f>SUM(B26:B31)</f>
         <v>66</v>
       </c>
+      <c r="V33" s="2"/>
+      <c r="W33" t="s">
+        <v>39</v>
+      </c>
+      <c r="X33" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="V34" s="2"/>
+      <c r="W34" t="s">
+        <v>40</v>
+      </c>
+      <c r="X34" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="V35" s="2"/>
+      <c r="W35" t="s">
+        <v>41</v>
+      </c>
+      <c r="X35" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="V36" s="2"/>
+      <c r="W36" t="s">
+        <v>42</v>
+      </c>
+      <c r="X36" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="V37" s="2"/>
+      <c r="W37" t="s">
+        <v>43</v>
+      </c>
+      <c r="X37" s="1"/>
+    </row>
+    <row r="38" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="V38" s="2"/>
+      <c r="W38" t="s">
+        <v>44</v>
+      </c>
+      <c r="X38" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="V39" s="2"/>
+      <c r="W39" t="s">
+        <v>45</v>
+      </c>
+      <c r="X39" s="1"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="V40" s="2"/>
+      <c r="W40" t="s">
+        <v>46</v>
+      </c>
+      <c r="X40" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="V41" s="2"/>
+      <c r="W41" t="s">
+        <v>47</v>
+      </c>
+      <c r="X41" s="1"/>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="V42" s="2"/>
+      <c r="W42" t="s">
+        <v>48</v>
+      </c>
+      <c r="X42" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="V43" s="2"/>
+      <c r="W43" t="s">
+        <v>49</v>
+      </c>
+      <c r="X43" s="1"/>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="V44" s="2"/>
+      <c r="W44" t="s">
+        <v>50</v>
+      </c>
+      <c r="X44" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="V46" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="W46" t="s">
+        <v>30</v>
+      </c>
+      <c r="X46" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="V47" s="2"/>
+      <c r="W47" t="s">
+        <v>32</v>
+      </c>
+      <c r="X47" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="V48" s="2"/>
+      <c r="W48" t="s">
+        <v>34</v>
+      </c>
+      <c r="X48" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="22:24" x14ac:dyDescent="0.25">
+      <c r="V49" s="2"/>
+      <c r="W49" t="s">
+        <v>37</v>
+      </c>
+      <c r="X49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="22:24" x14ac:dyDescent="0.25">
+      <c r="V50" s="2"/>
+      <c r="W50" t="s">
+        <v>38</v>
+      </c>
+      <c r="X50" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="22:24" x14ac:dyDescent="0.25">
+      <c r="V51" s="2"/>
+      <c r="W51" t="s">
+        <v>39</v>
+      </c>
+      <c r="X51" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="22:24" x14ac:dyDescent="0.25">
+      <c r="V52" s="2"/>
+      <c r="W52" t="s">
+        <v>40</v>
+      </c>
+      <c r="X52" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="22:24" x14ac:dyDescent="0.25">
+      <c r="V53" s="2"/>
+      <c r="W53" t="s">
+        <v>41</v>
+      </c>
+      <c r="X53" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="22:24" x14ac:dyDescent="0.25">
+      <c r="V54" s="2"/>
+      <c r="W54" t="s">
+        <v>42</v>
+      </c>
+      <c r="X54" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" spans="22:24" x14ac:dyDescent="0.25">
+      <c r="V55" s="2"/>
+      <c r="W55" t="s">
+        <v>43</v>
+      </c>
+      <c r="X55" s="1"/>
+    </row>
+    <row r="56" spans="22:24" x14ac:dyDescent="0.25">
+      <c r="V56" s="2"/>
+      <c r="W56" t="s">
+        <v>44</v>
+      </c>
+      <c r="X56" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" spans="22:24" x14ac:dyDescent="0.25">
+      <c r="V57" s="2"/>
+      <c r="W57" t="s">
+        <v>45</v>
+      </c>
+      <c r="X57" s="1"/>
+    </row>
+    <row r="58" spans="22:24" x14ac:dyDescent="0.25">
+      <c r="V58" s="2"/>
+      <c r="W58" t="s">
+        <v>46</v>
+      </c>
+      <c r="X58" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59" spans="22:24" x14ac:dyDescent="0.25">
+      <c r="V59" s="2"/>
+      <c r="W59" t="s">
+        <v>47</v>
+      </c>
+      <c r="X59" s="1"/>
+    </row>
+    <row r="60" spans="22:24" x14ac:dyDescent="0.25">
+      <c r="V60" s="2"/>
+      <c r="W60" t="s">
+        <v>48</v>
+      </c>
+      <c r="X60" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" spans="22:24" x14ac:dyDescent="0.25">
+      <c r="V61" s="2"/>
+      <c r="W61" t="s">
+        <v>49</v>
+      </c>
+      <c r="X61" s="1"/>
+    </row>
+    <row r="62" spans="22:24" x14ac:dyDescent="0.25">
+      <c r="V62" s="2"/>
+      <c r="W62" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="22:24" x14ac:dyDescent="0.25">
+      <c r="V64" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="W64" t="s">
+        <v>30</v>
+      </c>
+      <c r="X64" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="22:24" x14ac:dyDescent="0.25">
+      <c r="V65" s="2"/>
+      <c r="W65" t="s">
+        <v>32</v>
+      </c>
+      <c r="X65" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="66" spans="22:24" x14ac:dyDescent="0.25">
+      <c r="V66" s="2"/>
+      <c r="W66" t="s">
+        <v>34</v>
+      </c>
+      <c r="X66" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="67" spans="22:24" x14ac:dyDescent="0.25">
+      <c r="V67" s="2"/>
+      <c r="W67" t="s">
+        <v>37</v>
+      </c>
+      <c r="X67" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="68" spans="22:24" x14ac:dyDescent="0.25">
+      <c r="V68" s="2"/>
+      <c r="W68" t="s">
+        <v>38</v>
+      </c>
+      <c r="X68" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="69" spans="22:24" x14ac:dyDescent="0.25">
+      <c r="V69" s="2"/>
+      <c r="W69" t="s">
+        <v>39</v>
+      </c>
+      <c r="X69" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="70" spans="22:24" x14ac:dyDescent="0.25">
+      <c r="V70" s="2"/>
+      <c r="W70" t="s">
+        <v>40</v>
+      </c>
+      <c r="X70" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71" spans="22:24" x14ac:dyDescent="0.25">
+      <c r="V71" s="2"/>
+      <c r="W71" t="s">
+        <v>41</v>
+      </c>
+      <c r="X71" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="72" spans="22:24" x14ac:dyDescent="0.25">
+      <c r="V72" s="2"/>
+      <c r="W72" t="s">
+        <v>42</v>
+      </c>
+      <c r="X72" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="73" spans="22:24" x14ac:dyDescent="0.25">
+      <c r="V73" s="2"/>
+      <c r="W73" t="s">
+        <v>43</v>
+      </c>
+      <c r="X73" s="1"/>
+    </row>
+    <row r="74" spans="22:24" x14ac:dyDescent="0.25">
+      <c r="V74" s="2"/>
+      <c r="W74" t="s">
+        <v>44</v>
+      </c>
+      <c r="X74" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="75" spans="22:24" x14ac:dyDescent="0.25">
+      <c r="V75" s="2"/>
+      <c r="W75" t="s">
+        <v>45</v>
+      </c>
+      <c r="X75" s="1"/>
+    </row>
+    <row r="76" spans="22:24" x14ac:dyDescent="0.25">
+      <c r="V76" s="2"/>
+      <c r="W76" t="s">
+        <v>46</v>
+      </c>
+      <c r="X76" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="77" spans="22:24" x14ac:dyDescent="0.25">
+      <c r="V77" s="2"/>
+      <c r="W77" t="s">
+        <v>47</v>
+      </c>
+      <c r="X77" s="1"/>
+    </row>
+    <row r="78" spans="22:24" x14ac:dyDescent="0.25">
+      <c r="V78" s="2"/>
+      <c r="W78" t="s">
+        <v>48</v>
+      </c>
+      <c r="X78" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="79" spans="22:24" x14ac:dyDescent="0.25">
+      <c r="V79" s="2"/>
+      <c r="W79" t="s">
+        <v>49</v>
+      </c>
+      <c r="X79" s="1"/>
+    </row>
+    <row r="80" spans="22:24" x14ac:dyDescent="0.25">
+      <c r="V80" s="2"/>
+      <c r="W80" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="V1:V8"/>
+    <mergeCell ref="V46:V62"/>
+    <mergeCell ref="X54:X55"/>
+    <mergeCell ref="X56:X57"/>
+    <mergeCell ref="X58:X59"/>
+    <mergeCell ref="X60:X61"/>
+    <mergeCell ref="V64:V80"/>
+    <mergeCell ref="X72:X73"/>
+    <mergeCell ref="X74:X75"/>
+    <mergeCell ref="X76:X77"/>
+    <mergeCell ref="X78:X79"/>
+    <mergeCell ref="X18:X19"/>
+    <mergeCell ref="X20:X21"/>
+    <mergeCell ref="X22:X23"/>
+    <mergeCell ref="X24:X25"/>
+    <mergeCell ref="V10:V26"/>
+    <mergeCell ref="V28:V44"/>
+    <mergeCell ref="X36:X37"/>
+    <mergeCell ref="X38:X39"/>
+    <mergeCell ref="X40:X41"/>
+    <mergeCell ref="X42:X43"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/IO_Overview.xlsx
+++ b/IO_Overview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baischerl\Documents\localProject\cad\RS485-IO-Extension\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C375F2-B25A-4BCF-9D62-C4EE7CA2D447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B72E963-36CD-4C13-9C02-B5CDC0F2AC6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{22052B5C-B221-40B8-A976-D46AAAD19BD0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{22052B5C-B221-40B8-A976-D46AAAD19BD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -284,18 +284,6 @@
     <t>Licht 24VDC LED Stiege1</t>
   </si>
   <si>
-    <t>Licht 24VDC LED Vorhaus 2</t>
-  </si>
-  <si>
-    <t>Licht 24VDC LED Vorhaus 1</t>
-  </si>
-  <si>
-    <t>Licht 24VDC LED Gang OG 1</t>
-  </si>
-  <si>
-    <t>Licht 24VDC LED Gang OG 2</t>
-  </si>
-  <si>
     <t>LED WZ 2</t>
   </si>
   <si>
@@ -360,6 +348,18 @@
   </si>
   <si>
     <t>Licht HWR2</t>
+  </si>
+  <si>
+    <t>Licht 48VDC LED Gang OG 1</t>
+  </si>
+  <si>
+    <t>Licht 48VDC LED Gang OG 2</t>
+  </si>
+  <si>
+    <t>Licht 48VDC LED Vorhaus 1</t>
+  </si>
+  <si>
+    <t>Licht 48VDC LED Vorhaus 2</t>
   </si>
 </sst>
 </file>
@@ -404,10 +404,10 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -743,10 +743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA5B52D-611F-4FE7-AFD6-D4D35984D14B}">
-  <dimension ref="A1:X80"/>
+  <dimension ref="A1:Z80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AA20" sqref="AA20"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="X54" sqref="X54:X55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -759,7 +759,7 @@
     <col min="24" max="24" width="42.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -817,17 +817,17 @@
       <c r="S1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
-        <v>99</v>
+      <c r="V1" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="W1" t="s">
         <v>42</v>
       </c>
       <c r="X1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -885,15 +885,15 @@
         <f>SUM(B2:Q2)</f>
         <v>31</v>
       </c>
-      <c r="V2" s="2"/>
+      <c r="V2" s="1"/>
       <c r="W2" t="s">
         <v>43</v>
       </c>
       <c r="X2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -949,15 +949,15 @@
         <f>SUM(B3:Q3)</f>
         <v>4</v>
       </c>
-      <c r="V3" s="2"/>
+      <c r="V3" s="1"/>
       <c r="W3" t="s">
         <v>44</v>
       </c>
       <c r="X3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1013,33 +1013,33 @@
         <f>SUM(B4:Q4)</f>
         <v>16</v>
       </c>
-      <c r="V4" s="2"/>
+      <c r="V4" s="1"/>
       <c r="W4" t="s">
         <v>45</v>
       </c>
       <c r="X4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="V5" s="2"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="V5" s="1"/>
       <c r="W5" t="s">
         <v>46</v>
       </c>
       <c r="X5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="V6" s="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="V6" s="1"/>
       <c r="W6" t="s">
         <v>47</v>
       </c>
       <c r="X6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1047,15 +1047,15 @@
         <f>S3+2*S4</f>
         <v>36</v>
       </c>
-      <c r="V7" s="2"/>
+      <c r="V7" s="1"/>
       <c r="W7" t="s">
         <v>48</v>
       </c>
       <c r="X7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1063,16 +1063,16 @@
         <f>S2</f>
         <v>31</v>
       </c>
-      <c r="V8" s="2"/>
+      <c r="V8" s="1"/>
       <c r="W8" t="s">
         <v>49</v>
       </c>
       <c r="X8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="V10" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="V10" s="1" t="s">
         <v>29</v>
       </c>
       <c r="W10" t="s">
@@ -1081,8 +1081,15 @@
       <c r="X10" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y10">
+        <v>1.25</v>
+      </c>
+      <c r="Z10">
+        <f>0.2/Y10</f>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1090,55 +1097,90 @@
         <f>SUM(B7,B8)</f>
         <v>67</v>
       </c>
-      <c r="V11" s="2"/>
+      <c r="V11" s="1"/>
       <c r="W11" t="s">
         <v>32</v>
       </c>
       <c r="X11" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y11">
+        <v>1.5</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" ref="Z11:Z17" si="0">0.2/Y11</f>
+        <v>0.13333333333333333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B12">
         <f>_xlfn.CEILING.MATH(B11/13)</f>
         <v>6</v>
       </c>
-      <c r="V12" s="2"/>
+      <c r="V12" s="1"/>
       <c r="W12" t="s">
         <v>34</v>
       </c>
       <c r="X12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="V13" s="2"/>
+      <c r="Y12">
+        <v>1.5</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="0"/>
+        <v>0.13333333333333333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="V13" s="1"/>
       <c r="W13" t="s">
         <v>37</v>
       </c>
       <c r="X13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="V14" s="2"/>
+      <c r="Y13">
+        <v>1.5</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="0"/>
+        <v>0.13333333333333333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="V14" s="1"/>
       <c r="W14" t="s">
         <v>38</v>
       </c>
       <c r="X14" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="V15" s="2"/>
+      <c r="Y14">
+        <v>1.25</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="0"/>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="V15" s="1"/>
       <c r="W15" t="s">
         <v>39</v>
       </c>
       <c r="X15" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y15">
+        <v>0.6</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333337</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C16">
         <f>12*3</f>
         <v>36</v>
@@ -1151,15 +1193,22 @@
         <f>C16+D16</f>
         <v>63</v>
       </c>
-      <c r="V16" s="2"/>
+      <c r="V16" s="1"/>
       <c r="W16" t="s">
         <v>40</v>
       </c>
       <c r="X16" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y16">
+        <v>0.6</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333337</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E17">
         <f>_xlfn.CEILING.MATH(E16/13)</f>
         <v>5</v>
@@ -1168,94 +1217,101 @@
         <f>2*8+2*10+2*8+2*6</f>
         <v>64</v>
       </c>
-      <c r="V17" s="2"/>
+      <c r="V17" s="1"/>
       <c r="W17" t="s">
         <v>41</v>
       </c>
       <c r="X17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="V18" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="Y17">
+        <v>0.2</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="V18" s="1"/>
       <c r="W18" t="s">
         <v>42</v>
       </c>
-      <c r="X18" s="1" t="s">
+      <c r="X18" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="V19" s="2"/>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="V19" s="1"/>
       <c r="W19" t="s">
         <v>43</v>
       </c>
-      <c r="X19" s="1"/>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="V20" s="2"/>
+      <c r="X19" s="2"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="V20" s="1"/>
       <c r="W20" t="s">
         <v>44</v>
       </c>
-      <c r="X20" s="1" t="s">
+      <c r="X20" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="V21" s="2"/>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="V21" s="1"/>
       <c r="W21" t="s">
         <v>45</v>
       </c>
-      <c r="X21" s="1"/>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="V22" s="2"/>
+      <c r="X21" s="2"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="V22" s="1"/>
       <c r="W22" t="s">
         <v>46</v>
       </c>
-      <c r="X22" s="1" t="s">
+      <c r="X22" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="V23" s="2"/>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="V23" s="1"/>
       <c r="W23" t="s">
         <v>47</v>
       </c>
-      <c r="X23" s="1"/>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="V24" s="2"/>
+      <c r="X23" s="2"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="V24" s="1"/>
       <c r="W24" t="s">
         <v>48</v>
       </c>
-      <c r="X24" s="1" t="s">
+      <c r="X24" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="V25" s="2"/>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="V25" s="1"/>
       <c r="W25" t="s">
         <v>49</v>
       </c>
-      <c r="X25" s="1"/>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X25" s="2"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26">
         <v>17</v>
       </c>
-      <c r="V26" s="2"/>
+      <c r="V26" s="1"/>
       <c r="W26" t="s">
         <v>50</v>
       </c>
       <c r="X26" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1263,171 +1319,227 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
       <c r="B28">
         <v>21</v>
       </c>
-      <c r="V28" s="2" t="s">
+      <c r="V28" s="1" t="s">
         <v>55</v>
       </c>
       <c r="W28" t="s">
         <v>30</v>
       </c>
       <c r="X28" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="Y28">
+        <v>0.9</v>
+      </c>
+      <c r="Z28">
+        <f>0.2/Y28</f>
+        <v>0.22222222222222224</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29">
         <v>26</v>
       </c>
-      <c r="V29" s="2"/>
+      <c r="V29" s="1"/>
       <c r="W29" t="s">
         <v>32</v>
       </c>
       <c r="X29" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="V30" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="Y29">
+        <v>0.625</v>
+      </c>
+      <c r="Z29">
+        <f t="shared" ref="Z29:Z35" si="1">0.2/Y29</f>
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="V30" s="1"/>
       <c r="W30" t="s">
         <v>34</v>
       </c>
       <c r="X30" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="V31" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="Y30">
+        <v>0.625</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" si="1"/>
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="V31" s="1"/>
       <c r="W31" t="s">
         <v>37</v>
       </c>
       <c r="X31" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="V32" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="Y31">
+        <v>0.6</v>
+      </c>
+      <c r="Z31">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333337</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="V32" s="1"/>
       <c r="W32" t="s">
         <v>38</v>
       </c>
       <c r="X32" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="Y32">
+        <v>0.6</v>
+      </c>
+      <c r="Z32">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333337</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B33">
         <f>SUM(B26:B31)</f>
         <v>66</v>
       </c>
-      <c r="V33" s="2"/>
+      <c r="V33" s="1"/>
       <c r="W33" t="s">
         <v>39</v>
       </c>
       <c r="X33" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="V34" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="Y33">
+        <v>1</v>
+      </c>
+      <c r="Z33">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="V34" s="1"/>
       <c r="W34" t="s">
         <v>40</v>
       </c>
       <c r="X34" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="V35" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y34">
+        <v>1</v>
+      </c>
+      <c r="Z34">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="V35" s="1"/>
       <c r="W35" t="s">
         <v>41</v>
       </c>
       <c r="X35" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="36" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="V36" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="Y35">
+        <v>0.6</v>
+      </c>
+      <c r="Z35">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333337</v>
+      </c>
+    </row>
+    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="V36" s="1"/>
       <c r="W36" t="s">
         <v>42</v>
       </c>
-      <c r="X36" s="1" t="s">
+      <c r="X36" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="V37" s="2"/>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="V37" s="1"/>
       <c r="W37" t="s">
         <v>43</v>
       </c>
-      <c r="X37" s="1"/>
-    </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="V38" s="2"/>
+      <c r="X37" s="2"/>
+    </row>
+    <row r="38" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="V38" s="1"/>
       <c r="W38" t="s">
         <v>44</v>
       </c>
-      <c r="X38" s="1" t="s">
+      <c r="X38" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="V39" s="2"/>
+    <row r="39" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="V39" s="1"/>
       <c r="W39" t="s">
         <v>45</v>
       </c>
-      <c r="X39" s="1"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="V40" s="2"/>
+      <c r="X39" s="2"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="V40" s="1"/>
       <c r="W40" t="s">
         <v>46</v>
       </c>
-      <c r="X40" s="1" t="s">
+      <c r="X40" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="V41" s="2"/>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="V41" s="1"/>
       <c r="W41" t="s">
         <v>47</v>
       </c>
-      <c r="X41" s="1"/>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="V42" s="2"/>
+      <c r="X41" s="2"/>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="V42" s="1"/>
       <c r="W42" t="s">
         <v>48</v>
       </c>
-      <c r="X42" s="1" t="s">
+      <c r="X42" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="V43" s="2"/>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="V43" s="1"/>
       <c r="W43" t="s">
         <v>49</v>
       </c>
-      <c r="X43" s="1"/>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="V44" s="2"/>
+      <c r="X43" s="2"/>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="V44" s="1"/>
       <c r="W44" t="s">
         <v>50</v>
       </c>
       <c r="X44" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="V46" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="V46" s="1" t="s">
         <v>60</v>
       </c>
       <c r="W46" t="s">
@@ -1436,189 +1548,248 @@
       <c r="X46" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="V47" s="2"/>
+      <c r="Y46">
+        <v>0.6</v>
+      </c>
+      <c r="Z46">
+        <f>0.2/Y46</f>
+        <v>0.33333333333333337</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="V47" s="1"/>
       <c r="W47" t="s">
         <v>32</v>
       </c>
       <c r="X47" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="V48" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="Y47">
+        <v>0.6</v>
+      </c>
+      <c r="Z47">
+        <f t="shared" ref="Z47:Z53" si="2">0.2/Y47</f>
+        <v>0.33333333333333337</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="V48" s="1"/>
       <c r="W48" t="s">
         <v>34</v>
       </c>
       <c r="X48" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="49" spans="22:24" x14ac:dyDescent="0.25">
-      <c r="V49" s="2"/>
+      <c r="Y48">
+        <v>0.2</v>
+      </c>
+      <c r="Z48">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="22:26" x14ac:dyDescent="0.25">
+      <c r="V49" s="1"/>
       <c r="W49" t="s">
         <v>37</v>
       </c>
       <c r="X49" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="50" spans="22:24" x14ac:dyDescent="0.25">
-      <c r="V50" s="2"/>
+      <c r="Y49">
+        <v>0.2</v>
+      </c>
+      <c r="Z49">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="22:26" x14ac:dyDescent="0.25">
+      <c r="V50" s="1"/>
       <c r="W50" t="s">
         <v>38</v>
       </c>
       <c r="X50" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="51" spans="22:24" x14ac:dyDescent="0.25">
-      <c r="V51" s="2"/>
+      <c r="Y50">
+        <v>0.2</v>
+      </c>
+      <c r="Z50">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="22:26" x14ac:dyDescent="0.25">
+      <c r="V51" s="1"/>
       <c r="W51" t="s">
         <v>39</v>
       </c>
       <c r="X51" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="52" spans="22:24" x14ac:dyDescent="0.25">
-      <c r="V52" s="2"/>
+      <c r="Y51">
+        <v>1</v>
+      </c>
+      <c r="Z51">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="52" spans="22:26" x14ac:dyDescent="0.25">
+      <c r="V52" s="1"/>
       <c r="W52" t="s">
         <v>40</v>
       </c>
       <c r="X52" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="53" spans="22:24" x14ac:dyDescent="0.25">
-      <c r="V53" s="2"/>
+      <c r="Y52">
+        <v>1</v>
+      </c>
+      <c r="Z52">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="53" spans="22:26" x14ac:dyDescent="0.25">
+      <c r="V53" s="1"/>
       <c r="W53" t="s">
         <v>41</v>
       </c>
       <c r="X53" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="54" spans="22:24" x14ac:dyDescent="0.25">
-      <c r="V54" s="2"/>
+      <c r="Y53">
+        <v>0.4</v>
+      </c>
+      <c r="Z53">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="54" spans="22:26" x14ac:dyDescent="0.25">
+      <c r="V54" s="1"/>
       <c r="W54" t="s">
         <v>42</v>
       </c>
-      <c r="X54" s="1" t="s">
+      <c r="X54" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="55" spans="22:24" x14ac:dyDescent="0.25">
-      <c r="V55" s="2"/>
+    <row r="55" spans="22:26" x14ac:dyDescent="0.25">
+      <c r="V55" s="1"/>
       <c r="W55" t="s">
         <v>43</v>
       </c>
-      <c r="X55" s="1"/>
-    </row>
-    <row r="56" spans="22:24" x14ac:dyDescent="0.25">
-      <c r="V56" s="2"/>
+      <c r="X55" s="2"/>
+    </row>
+    <row r="56" spans="22:26" x14ac:dyDescent="0.25">
+      <c r="V56" s="1"/>
       <c r="W56" t="s">
         <v>44</v>
       </c>
-      <c r="X56" s="1" t="s">
+      <c r="X56" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="57" spans="22:24" x14ac:dyDescent="0.25">
-      <c r="V57" s="2"/>
+    <row r="57" spans="22:26" x14ac:dyDescent="0.25">
+      <c r="V57" s="1"/>
       <c r="W57" t="s">
         <v>45</v>
       </c>
-      <c r="X57" s="1"/>
-    </row>
-    <row r="58" spans="22:24" x14ac:dyDescent="0.25">
-      <c r="V58" s="2"/>
+      <c r="X57" s="2"/>
+    </row>
+    <row r="58" spans="22:26" x14ac:dyDescent="0.25">
+      <c r="V58" s="1"/>
       <c r="W58" t="s">
         <v>46</v>
       </c>
-      <c r="X58" s="1" t="s">
+      <c r="X58" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="59" spans="22:24" x14ac:dyDescent="0.25">
-      <c r="V59" s="2"/>
+    <row r="59" spans="22:26" x14ac:dyDescent="0.25">
+      <c r="V59" s="1"/>
       <c r="W59" t="s">
         <v>47</v>
       </c>
-      <c r="X59" s="1"/>
-    </row>
-    <row r="60" spans="22:24" x14ac:dyDescent="0.25">
-      <c r="V60" s="2"/>
+      <c r="X59" s="2"/>
+    </row>
+    <row r="60" spans="22:26" x14ac:dyDescent="0.25">
+      <c r="V60" s="1"/>
       <c r="W60" t="s">
         <v>48</v>
       </c>
-      <c r="X60" s="1" t="s">
+      <c r="X60" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="61" spans="22:24" x14ac:dyDescent="0.25">
-      <c r="V61" s="2"/>
+    <row r="61" spans="22:26" x14ac:dyDescent="0.25">
+      <c r="V61" s="1"/>
       <c r="W61" t="s">
         <v>49</v>
       </c>
-      <c r="X61" s="1"/>
-    </row>
-    <row r="62" spans="22:24" x14ac:dyDescent="0.25">
-      <c r="V62" s="2"/>
+      <c r="X61" s="2"/>
+    </row>
+    <row r="62" spans="22:26" x14ac:dyDescent="0.25">
+      <c r="V62" s="1"/>
       <c r="W62" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="22:24" x14ac:dyDescent="0.25">
-      <c r="V64" s="2" t="s">
+    <row r="64" spans="22:26" x14ac:dyDescent="0.25">
+      <c r="V64" s="1" t="s">
         <v>78</v>
       </c>
       <c r="W64" t="s">
         <v>30</v>
       </c>
       <c r="X64" t="s">
-        <v>93</v>
+        <v>89</v>
+      </c>
+      <c r="Y64">
+        <v>0.6</v>
       </c>
     </row>
     <row r="65" spans="22:24" x14ac:dyDescent="0.25">
-      <c r="V65" s="2"/>
+      <c r="V65" s="1"/>
       <c r="W65" t="s">
         <v>32</v>
       </c>
       <c r="X65" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
     </row>
     <row r="66" spans="22:24" x14ac:dyDescent="0.25">
-      <c r="V66" s="2"/>
+      <c r="V66" s="1"/>
       <c r="W66" t="s">
         <v>34</v>
       </c>
       <c r="X66" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
     </row>
     <row r="67" spans="22:24" x14ac:dyDescent="0.25">
-      <c r="V67" s="2"/>
+      <c r="V67" s="1"/>
       <c r="W67" t="s">
         <v>37</v>
       </c>
       <c r="X67" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
     </row>
     <row r="68" spans="22:24" x14ac:dyDescent="0.25">
-      <c r="V68" s="2"/>
+      <c r="V68" s="1"/>
       <c r="W68" t="s">
         <v>38</v>
       </c>
       <c r="X68" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
     </row>
     <row r="69" spans="22:24" x14ac:dyDescent="0.25">
-      <c r="V69" s="2"/>
+      <c r="V69" s="1"/>
       <c r="W69" t="s">
         <v>39</v>
       </c>
@@ -1627,7 +1798,7 @@
       </c>
     </row>
     <row r="70" spans="22:24" x14ac:dyDescent="0.25">
-      <c r="V70" s="2"/>
+      <c r="V70" s="1"/>
       <c r="W70" t="s">
         <v>40</v>
       </c>
@@ -1636,7 +1807,7 @@
       </c>
     </row>
     <row r="71" spans="22:24" x14ac:dyDescent="0.25">
-      <c r="V71" s="2"/>
+      <c r="V71" s="1"/>
       <c r="W71" t="s">
         <v>41</v>
       </c>
@@ -1645,88 +1816,88 @@
       </c>
     </row>
     <row r="72" spans="22:24" x14ac:dyDescent="0.25">
-      <c r="V72" s="2"/>
+      <c r="V72" s="1"/>
       <c r="W72" t="s">
         <v>42</v>
       </c>
-      <c r="X72" s="1" t="s">
+      <c r="X72" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="73" spans="22:24" x14ac:dyDescent="0.25">
-      <c r="V73" s="2"/>
+      <c r="V73" s="1"/>
       <c r="W73" t="s">
         <v>43</v>
       </c>
-      <c r="X73" s="1"/>
+      <c r="X73" s="2"/>
     </row>
     <row r="74" spans="22:24" x14ac:dyDescent="0.25">
-      <c r="V74" s="2"/>
+      <c r="V74" s="1"/>
       <c r="W74" t="s">
         <v>44</v>
       </c>
-      <c r="X74" s="1" t="s">
+      <c r="X74" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="75" spans="22:24" x14ac:dyDescent="0.25">
-      <c r="V75" s="2"/>
+      <c r="V75" s="1"/>
       <c r="W75" t="s">
         <v>45</v>
       </c>
-      <c r="X75" s="1"/>
+      <c r="X75" s="2"/>
     </row>
     <row r="76" spans="22:24" x14ac:dyDescent="0.25">
-      <c r="V76" s="2"/>
+      <c r="V76" s="1"/>
       <c r="W76" t="s">
         <v>46</v>
       </c>
-      <c r="X76" s="1" t="s">
+      <c r="X76" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="77" spans="22:24" x14ac:dyDescent="0.25">
-      <c r="V77" s="2"/>
+      <c r="V77" s="1"/>
       <c r="W77" t="s">
         <v>47</v>
       </c>
-      <c r="X77" s="1"/>
+      <c r="X77" s="2"/>
     </row>
     <row r="78" spans="22:24" x14ac:dyDescent="0.25">
-      <c r="V78" s="2"/>
+      <c r="V78" s="1"/>
       <c r="W78" t="s">
         <v>48</v>
       </c>
-      <c r="X78" s="1" t="s">
+      <c r="X78" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="79" spans="22:24" x14ac:dyDescent="0.25">
-      <c r="V79" s="2"/>
+      <c r="V79" s="1"/>
       <c r="W79" t="s">
         <v>49</v>
       </c>
-      <c r="X79" s="1"/>
+      <c r="X79" s="2"/>
     </row>
     <row r="80" spans="22:24" x14ac:dyDescent="0.25">
-      <c r="V80" s="2"/>
+      <c r="V80" s="1"/>
       <c r="W80" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="V64:V80"/>
+    <mergeCell ref="X72:X73"/>
+    <mergeCell ref="X74:X75"/>
+    <mergeCell ref="X76:X77"/>
+    <mergeCell ref="X78:X79"/>
     <mergeCell ref="V1:V8"/>
     <mergeCell ref="V46:V62"/>
     <mergeCell ref="X54:X55"/>
     <mergeCell ref="X56:X57"/>
     <mergeCell ref="X58:X59"/>
     <mergeCell ref="X60:X61"/>
-    <mergeCell ref="V64:V80"/>
-    <mergeCell ref="X72:X73"/>
-    <mergeCell ref="X74:X75"/>
-    <mergeCell ref="X76:X77"/>
-    <mergeCell ref="X78:X79"/>
     <mergeCell ref="X18:X19"/>
     <mergeCell ref="X20:X21"/>
     <mergeCell ref="X22:X23"/>
